--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_25_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1373538.821323743</v>
+        <v>-1376436.24958138</v>
       </c>
     </row>
     <row r="7">
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>13.33861851436233</v>
       </c>
       <c r="G2" t="n">
-        <v>13.8871982085107</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>12.38369583986318</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>18.21008304703106</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.959070404001045</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -747,22 +747,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>18.21008304703106</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>16.03944114782495</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18.21008304703106</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>15.54112977924295</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="R3" t="n">
-        <v>18.21008304703106</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>0.4983113685830569</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>32.68636186295921</v>
       </c>
       <c r="G5" t="n">
-        <v>13.70732065777799</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>1.810057396252972</v>
       </c>
       <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>29.24983943941752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>16.44799022605971</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44799022605969</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="J6" t="n">
         <v>46.18894706358476</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>112.1126601249237</v>
+        <v>81.3019674773121</v>
       </c>
       <c r="G8" t="n">
-        <v>13.38870434448781</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="H8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946475</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.61164031771682</v>
+        <v>15.61164031771693</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>95.35315165846217</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>69.74848637582811</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="X8" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>64.26286446312977</v>
+        <v>64.2628644631298</v>
       </c>
       <c r="J9" t="n">
-        <v>30.08282103867671</v>
+        <v>30.08282103867677</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1254,28 +1254,28 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.256558775821418</v>
+        <v>9.256558775821503</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.09559288881304</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>34.93150086738615</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>107.2592468853285</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>3.625377488803504</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873204</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589019</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>37.84125266805222</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>285.9646047474841</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143207</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004726</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>43.42483681571186</v>
+        <v>125.7998597541021</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,22 +1607,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.592917841534</v>
+        <v>138.1303734841375</v>
       </c>
       <c r="H14" t="n">
-        <v>291.2403613835</v>
+        <v>291.2403613834999</v>
       </c>
       <c r="I14" t="n">
         <v>28.90056660389953</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.6950537740603</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>202.4786139429426</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>325.3082032991769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1704,7 @@
         <v>87.89778431512082</v>
       </c>
       <c r="I15" t="n">
-        <v>12.76005920853822</v>
+        <v>12.76005920853824</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>124.8757279762148</v>
+        <v>124.8757279762149</v>
       </c>
       <c r="T15" t="n">
         <v>190.0074582735027</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8783163942144</v>
+        <v>165.8783163942143</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4436781526119</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>91.91693778434403</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>82.30038209396101</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>73.13427673811279</v>
       </c>
       <c r="T16" t="n">
         <v>218.9187567628735</v>
       </c>
       <c r="U16" t="n">
-        <v>99.92866637893451</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F17" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894979</v>
       </c>
       <c r="G17" t="n">
         <v>378.5542040247498</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221614</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2132,7 +2132,7 @@
         <v>60.32014642295177</v>
       </c>
       <c r="T20" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545731</v>
       </c>
       <c r="U20" t="n">
         <v>219.3243840645688</v>
@@ -2318,19 +2318,19 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C23" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D23" t="n">
         <v>323.072839268469</v>
       </c>
       <c r="E23" t="n">
-        <v>350.320167720049</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F23" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G23" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
         <v>255.2416659947559</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295171</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T23" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U23" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V23" t="n">
-        <v>296.1420561179209</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W23" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y23" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902189007</v>
+        <v>4.866200902188993</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389679</v>
+        <v>120.6170668389678</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C25" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D25" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E25" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F25" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707174</v>
       </c>
       <c r="G25" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I25" t="n">
-        <v>54.52629139453005</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221572</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T25" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U25" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V25" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W25" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X25" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D26" t="n">
         <v>323.072839268469</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T26" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
         <v>296.142056117921</v>
@@ -2621,7 +2621,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="27">
@@ -2719,7 +2719,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F28" t="n">
         <v>113.8108456707173</v>
@@ -2731,7 +2731,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S28" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
         <v>254.5831063612652</v>
@@ -2779,7 +2779,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112667</v>
       </c>
       <c r="C29" t="n">
-        <v>333.6626894187934</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D29" t="n">
-        <v>323.0728392684688</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E29" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F29" t="n">
-        <v>375.2658433894973</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G29" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H29" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>-1.477218347645248e-12</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295164</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T29" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U29" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V29" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W29" t="n">
-        <v>317.6307663651989</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X29" t="n">
-        <v>338.1208983262549</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y29" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C31" t="n">
-        <v>135.6366187464137</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D31" t="n">
-        <v>117.0052706659983</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E31" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F31" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G31" t="n">
-        <v>134.075898551028</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H31" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139452998</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.04747230221564</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S31" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T31" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U31" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V31" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W31" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X31" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y31" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C32" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D32" t="n">
-        <v>323.0728392684691</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3044,7 +3044,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H32" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295185</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
         <v>296.142056117921</v>
@@ -3095,7 +3095,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y32" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038391</v>
       </c>
     </row>
     <row r="33">
@@ -3190,22 +3190,22 @@
         <v>135.6366187464139</v>
       </c>
       <c r="D34" t="n">
-        <v>117.0052706659985</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E34" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F34" t="n">
-        <v>113.8108456707174</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G34" t="n">
         <v>134.0758985510282</v>
       </c>
       <c r="H34" t="n">
-        <v>110.1245053442998</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453019</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221584</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
-        <v>152.2386502424834</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
         <v>254.5831063612652</v>
@@ -3250,10 +3250,10 @@
         <v>254.9127959843771</v>
       </c>
       <c r="X34" t="n">
-        <v>194.0994530368233</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D35" t="n">
         <v>323.072839268469</v>
@@ -3275,13 +3275,13 @@
         <v>350.3201677200478</v>
       </c>
       <c r="F35" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G35" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295176</v>
+        <v>60.3201464229517</v>
       </c>
       <c r="T35" t="n">
         <v>168.9926026545723</v>
@@ -3323,13 +3323,13 @@
         <v>219.3243840645688</v>
       </c>
       <c r="V35" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179209</v>
       </c>
       <c r="W35" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X35" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y35" t="n">
         <v>354.6277363038396</v>
@@ -3424,25 +3424,25 @@
         <v>148.2217778297233</v>
       </c>
       <c r="C37" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F37" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G37" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H37" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I37" t="n">
-        <v>54.5262913945301</v>
+        <v>54.52629139453003</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221576</v>
+        <v>42.0474723022157</v>
       </c>
       <c r="S37" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V37" t="n">
         <v>220.527440971614</v>
@@ -3487,7 +3487,7 @@
         <v>254.912795984377</v>
       </c>
       <c r="X37" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y37" t="n">
         <v>186.9744509998808</v>
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112665</v>
       </c>
       <c r="C38" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187935</v>
       </c>
       <c r="D38" t="n">
-        <v>323.0728392684691</v>
+        <v>323.0728392684689</v>
       </c>
       <c r="E38" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200477</v>
       </c>
       <c r="F38" t="n">
-        <v>375.2658433894975</v>
+        <v>375.2658433894974</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247498</v>
+        <v>378.5542040247497</v>
       </c>
       <c r="H38" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947558</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295167</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545722</v>
       </c>
       <c r="U38" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645687</v>
       </c>
       <c r="V38" t="n">
-        <v>296.142056117921</v>
+        <v>296.1420561179208</v>
       </c>
       <c r="W38" t="n">
-        <v>317.6307663651991</v>
+        <v>317.630766365199</v>
       </c>
       <c r="X38" t="n">
-        <v>338.1208983262551</v>
+        <v>338.120898326255</v>
       </c>
       <c r="Y38" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038395</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297232</v>
       </c>
       <c r="C40" t="n">
-        <v>135.6366187464139</v>
+        <v>135.6366187464138</v>
       </c>
       <c r="D40" t="n">
-        <v>117.0052706659984</v>
+        <v>117.0052706659983</v>
       </c>
       <c r="E40" t="n">
-        <v>114.8237602943553</v>
+        <v>114.8237602943551</v>
       </c>
       <c r="F40" t="n">
-        <v>113.8108456707173</v>
+        <v>113.8108456707172</v>
       </c>
       <c r="G40" t="n">
-        <v>134.0758985510282</v>
+        <v>134.0758985510281</v>
       </c>
       <c r="H40" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442996</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453001</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221582</v>
+        <v>42.04747230221567</v>
       </c>
       <c r="S40" t="n">
-        <v>152.2386502424833</v>
+        <v>152.2386502424832</v>
       </c>
       <c r="T40" t="n">
-        <v>186.4872700401421</v>
+        <v>186.4872700401419</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612652</v>
+        <v>254.583106361265</v>
       </c>
       <c r="V40" t="n">
-        <v>220.5274409716141</v>
+        <v>220.5274409716139</v>
       </c>
       <c r="W40" t="n">
-        <v>254.9127959843771</v>
+        <v>254.9127959843769</v>
       </c>
       <c r="X40" t="n">
-        <v>194.0994530368232</v>
+        <v>194.0994530368231</v>
       </c>
       <c r="Y40" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998807</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>351.1236393112667</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C41" t="n">
-        <v>333.6626894187937</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D41" t="n">
-        <v>323.0728392684678</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E41" t="n">
-        <v>350.3201677200479</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F41" t="n">
         <v>375.2658433894975</v>
@@ -3755,7 +3755,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9926026545724</v>
+        <v>168.9926026545723</v>
       </c>
       <c r="U41" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V41" t="n">
         <v>296.142056117921</v>
@@ -3806,7 +3806,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y41" t="n">
-        <v>354.6277363038397</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3895,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>148.2217778297234</v>
+        <v>148.2217778297233</v>
       </c>
       <c r="C43" t="n">
         <v>135.6366187464139</v>
@@ -3904,7 +3904,7 @@
         <v>117.0052706659984</v>
       </c>
       <c r="E43" t="n">
-        <v>114.823760294354</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F43" t="n">
         <v>113.8108456707173</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453015</v>
+        <v>54.5262913945301</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221581</v>
+        <v>42.04747230221576</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T43" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U43" t="n">
-        <v>254.5831063612652</v>
+        <v>254.5831063612651</v>
       </c>
       <c r="V43" t="n">
-        <v>220.5274409716141</v>
+        <v>220.527440971614</v>
       </c>
       <c r="W43" t="n">
-        <v>254.9127959843771</v>
+        <v>254.912795984377</v>
       </c>
       <c r="X43" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.42978033085555</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="C2" t="n">
-        <v>22.42978033085555</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="D2" t="n">
-        <v>22.42978033085555</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="E2" t="n">
-        <v>22.42978033085555</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="F2" t="n">
-        <v>15.48427958165208</v>
+        <v>59.3669801534196</v>
       </c>
       <c r="G2" t="n">
-        <v>1.456806643762485</v>
+        <v>40.97295687358904</v>
       </c>
       <c r="H2" t="n">
-        <v>1.456806643762485</v>
+        <v>40.97295687358904</v>
       </c>
       <c r="I2" t="n">
-        <v>1.456806643762485</v>
+        <v>40.97295687358904</v>
       </c>
       <c r="J2" t="n">
-        <v>1.456806643762485</v>
+        <v>40.97295687358904</v>
       </c>
       <c r="K2" t="n">
-        <v>1.456806643762485</v>
+        <v>40.97295687358904</v>
       </c>
       <c r="L2" t="n">
-        <v>1.456806643762485</v>
+        <v>28.46417319695957</v>
       </c>
       <c r="M2" t="n">
-        <v>19.48478886032323</v>
+        <v>46.4921554135215</v>
       </c>
       <c r="N2" t="n">
-        <v>37.51277107688398</v>
+        <v>64.52013763008344</v>
       </c>
       <c r="O2" t="n">
-        <v>45.83296563492839</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="P2" t="n">
-        <v>45.83296563492839</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="Q2" t="n">
-        <v>27.43894235509903</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="R2" t="n">
-        <v>27.43894235509903</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="S2" t="n">
-        <v>22.42978033085555</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="T2" t="n">
-        <v>22.42978033085555</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="U2" t="n">
-        <v>22.42978033085555</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="V2" t="n">
-        <v>22.42978033085555</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="W2" t="n">
-        <v>22.42978033085555</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="X2" t="n">
-        <v>22.42978033085555</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="Y2" t="n">
-        <v>22.42978033085555</v>
+        <v>72.84033218812903</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.44630890829488</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="C3" t="n">
-        <v>54.44630890829488</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="D3" t="n">
-        <v>54.44630890829488</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="E3" t="n">
-        <v>54.44630890829488</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="F3" t="n">
-        <v>36.05228562846553</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="G3" t="n">
-        <v>36.05228562846553</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="H3" t="n">
-        <v>19.85082992359184</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="I3" t="n">
-        <v>1.456806643762485</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="J3" t="n">
-        <v>1.456806643762485</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="K3" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="L3" t="n">
-        <v>19.48478886032323</v>
+        <v>19.48478886032451</v>
       </c>
       <c r="M3" t="n">
-        <v>37.51277107688398</v>
+        <v>37.51277107688645</v>
       </c>
       <c r="N3" t="n">
-        <v>55.54075329344472</v>
+        <v>55.54075329344839</v>
       </c>
       <c r="O3" t="n">
-        <v>62.29484089540881</v>
+        <v>62.2948408954129</v>
       </c>
       <c r="P3" t="n">
-        <v>72.84033218812424</v>
+        <v>72.84033218812903</v>
       </c>
       <c r="Q3" t="n">
-        <v>72.84033218812424</v>
+        <v>54.44630890829846</v>
       </c>
       <c r="R3" t="n">
-        <v>54.44630890829488</v>
+        <v>36.0522856284679</v>
       </c>
       <c r="S3" t="n">
-        <v>54.44630890829488</v>
+        <v>17.65826234863734</v>
       </c>
       <c r="T3" t="n">
-        <v>54.44630890829488</v>
+        <v>17.65826234863734</v>
       </c>
       <c r="U3" t="n">
-        <v>54.44630890829488</v>
+        <v>17.65826234863734</v>
       </c>
       <c r="V3" t="n">
-        <v>54.44630890829488</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="W3" t="n">
-        <v>54.44630890829488</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="X3" t="n">
-        <v>54.44630890829488</v>
+        <v>17.15491753188677</v>
       </c>
       <c r="Y3" t="n">
-        <v>54.44630890829488</v>
+        <v>17.15491753188677</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="D4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="E4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="F4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="G4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="I4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="K4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="L4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="M4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="N4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="O4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="P4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="R4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="S4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="T4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="U4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="V4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="W4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="X4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
       <c r="Y4" t="n">
-        <v>1.456806643762485</v>
+        <v>1.456806643762581</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>67.2104211489836</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="C5" t="n">
-        <v>67.2104211489836</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="D5" t="n">
-        <v>67.2104211489836</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="E5" t="n">
-        <v>67.2104211489836</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="F5" t="n">
-        <v>60.26492039978013</v>
+        <v>71.6016318784047</v>
       </c>
       <c r="G5" t="n">
-        <v>46.41914195758014</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="H5" t="n">
-        <v>46.41914195758014</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="I5" t="n">
-        <v>46.41914195758014</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="J5" t="n">
-        <v>46.41914195758014</v>
+        <v>21.30364498231921</v>
       </c>
       <c r="K5" t="n">
-        <v>46.41914195758014</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="L5" t="n">
-        <v>62.2614493974929</v>
+        <v>19.82590800208273</v>
       </c>
       <c r="M5" t="n">
-        <v>111.5585063543463</v>
+        <v>69.12296495893611</v>
       </c>
       <c r="N5" t="n">
-        <v>160.8555633111997</v>
+        <v>118.4200219157895</v>
       </c>
       <c r="O5" t="n">
-        <v>199.1800281084985</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="P5" t="n">
-        <v>197.3516873042026</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="Q5" t="n">
-        <v>147.0537004081171</v>
+        <v>154.9161459087924</v>
       </c>
       <c r="R5" t="n">
-        <v>147.0537004081171</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="S5" t="n">
-        <v>147.0537004081171</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="T5" t="n">
-        <v>96.7557135120316</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="U5" t="n">
-        <v>67.2104211489836</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="V5" t="n">
-        <v>67.2104211489836</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="W5" t="n">
-        <v>67.2104211489836</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="X5" t="n">
-        <v>67.2104211489836</v>
+        <v>104.6181590127069</v>
       </c>
       <c r="Y5" t="n">
-        <v>67.2104211489836</v>
+        <v>104.6181590127069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.25323418807346</v>
+        <v>117.551221084159</v>
       </c>
       <c r="C6" t="n">
-        <v>67.25323418807346</v>
+        <v>117.551221084159</v>
       </c>
       <c r="D6" t="n">
-        <v>67.25323418807346</v>
+        <v>117.551221084159</v>
       </c>
       <c r="E6" t="n">
-        <v>67.25323418807346</v>
+        <v>117.551221084159</v>
       </c>
       <c r="F6" t="n">
-        <v>67.25323418807346</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="G6" t="n">
-        <v>67.25323418807346</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="H6" t="n">
-        <v>50.63910264659903</v>
+        <v>100.9370895426845</v>
       </c>
       <c r="I6" t="n">
         <v>50.63910264659903</v>
@@ -4653,13 +4653,13 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M6" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N6" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O6" t="n">
-        <v>170.4401317516709</v>
+        <v>198.1973125878844</v>
       </c>
       <c r="P6" t="n">
         <v>199.1800281084985</v>
@@ -4680,16 +4680,16 @@
         <v>117.551221084159</v>
       </c>
       <c r="V6" t="n">
-        <v>67.25323418807346</v>
+        <v>117.551221084159</v>
       </c>
       <c r="W6" t="n">
-        <v>67.25323418807346</v>
+        <v>117.551221084159</v>
       </c>
       <c r="X6" t="n">
-        <v>67.25323418807346</v>
+        <v>117.551221084159</v>
       </c>
       <c r="Y6" t="n">
-        <v>67.25323418807346</v>
+        <v>117.551221084159</v>
       </c>
     </row>
     <row r="7">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>248.9831790668981</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="C8" t="n">
-        <v>248.9831790668981</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="D8" t="n">
-        <v>248.9831790668981</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="E8" t="n">
-        <v>248.9831790668981</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="F8" t="n">
-        <v>135.7380678296014</v>
+        <v>140.9966813295779</v>
       </c>
       <c r="G8" t="n">
-        <v>122.2141240472905</v>
+        <v>27.7515700922815</v>
       </c>
       <c r="H8" t="n">
-        <v>8.969012809993892</v>
+        <v>27.7515700922815</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993892</v>
+        <v>27.7515700922815</v>
       </c>
       <c r="J8" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="K8" t="n">
-        <v>32.11753523687545</v>
+        <v>32.11753523687528</v>
       </c>
       <c r="L8" t="n">
-        <v>97.73708609773408</v>
+        <v>97.73708609773374</v>
       </c>
       <c r="M8" t="n">
-        <v>202.4209174083929</v>
+        <v>202.4209174083924</v>
       </c>
       <c r="N8" t="n">
-        <v>313.4124509320674</v>
+        <v>313.4124509320668</v>
       </c>
       <c r="O8" t="n">
-        <v>404.8833474416797</v>
+        <v>404.8833474416789</v>
       </c>
       <c r="P8" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996937</v>
       </c>
       <c r="Q8" t="n">
-        <v>432.6813068454352</v>
+        <v>432.6813068454342</v>
       </c>
       <c r="R8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="S8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="T8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="U8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="V8" t="n">
-        <v>432.6813068454352</v>
+        <v>336.3649920389067</v>
       </c>
       <c r="W8" t="n">
-        <v>362.2282903041947</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="X8" t="n">
-        <v>248.9831790668981</v>
+        <v>223.1198808016103</v>
       </c>
       <c r="Y8" t="n">
-        <v>248.9831790668981</v>
+        <v>223.1198808016103</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>217.5127962713375</v>
+        <v>320.8913955178546</v>
       </c>
       <c r="C9" t="n">
-        <v>217.5127962713375</v>
+        <v>320.8913955178546</v>
       </c>
       <c r="D9" t="n">
-        <v>104.2676850340409</v>
+        <v>320.8913955178546</v>
       </c>
       <c r="E9" t="n">
-        <v>104.2676850340409</v>
+        <v>320.8913955178546</v>
       </c>
       <c r="F9" t="n">
-        <v>104.2676850340409</v>
+        <v>320.8913955178546</v>
       </c>
       <c r="G9" t="n">
-        <v>104.2676850340409</v>
+        <v>207.6462842805582</v>
       </c>
       <c r="H9" t="n">
         <v>104.2676850340409</v>
       </c>
       <c r="I9" t="n">
-        <v>39.35570072784915</v>
+        <v>39.3557007278492</v>
       </c>
       <c r="J9" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="K9" t="n">
-        <v>8.969012809993892</v>
+        <v>36.2216681853454</v>
       </c>
       <c r="L9" t="n">
-        <v>91.93611230387162</v>
+        <v>119.188767679223</v>
       </c>
       <c r="M9" t="n">
-        <v>202.927645827546</v>
+        <v>230.1803012028972</v>
       </c>
       <c r="N9" t="n">
-        <v>313.9191793512205</v>
+        <v>341.1718347265714</v>
       </c>
       <c r="O9" t="n">
-        <v>387.4830745953194</v>
+        <v>387.4830745953186</v>
       </c>
       <c r="P9" t="n">
-        <v>448.4506404996946</v>
+        <v>448.4506404996937</v>
       </c>
       <c r="Q9" t="n">
-        <v>439.100581130178</v>
+        <v>439.100581130177</v>
       </c>
       <c r="R9" t="n">
-        <v>439.100581130178</v>
+        <v>356.1757398283457</v>
       </c>
       <c r="S9" t="n">
-        <v>439.100581130178</v>
+        <v>356.1757398283457</v>
       </c>
       <c r="T9" t="n">
-        <v>439.100581130178</v>
+        <v>320.8913955178546</v>
       </c>
       <c r="U9" t="n">
-        <v>439.100581130178</v>
+        <v>320.8913955178546</v>
       </c>
       <c r="V9" t="n">
-        <v>330.7579075086341</v>
+        <v>320.8913955178546</v>
       </c>
       <c r="W9" t="n">
-        <v>330.7579075086341</v>
+        <v>320.8913955178546</v>
       </c>
       <c r="X9" t="n">
-        <v>217.5127962713375</v>
+        <v>320.8913955178546</v>
       </c>
       <c r="Y9" t="n">
-        <v>217.5127962713375</v>
+        <v>320.8913955178546</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="C10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="D10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="E10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="F10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="G10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="H10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="I10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="J10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="K10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="L10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="M10" t="n">
-        <v>8.969012809993892</v>
+        <v>8.969012809993874</v>
       </c>
       <c r="N10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="O10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63101027343186</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="R10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="S10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="T10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="U10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="V10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="W10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="X10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.969012809993892</v>
+        <v>12.63101027343176</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1133.347320219774</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C11" t="n">
-        <v>1133.347320219774</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D11" t="n">
-        <v>775.0816216130236</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E11" t="n">
-        <v>775.0816216130236</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F11" t="n">
-        <v>364.0957168234161</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234161</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2866.09759726723</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>2535.03470992366</v>
+        <v>3177.091665592779</v>
       </c>
       <c r="W11" t="n">
-        <v>2182.266054653545</v>
+        <v>2824.323010322665</v>
       </c>
       <c r="X11" t="n">
-        <v>1808.800296392466</v>
+        <v>2824.323010322665</v>
       </c>
       <c r="Y11" t="n">
-        <v>1519.947160283896</v>
+        <v>2434.183678346853</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064588</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158131</v>
@@ -5130,40 +5130,40 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>994.2880032601524</v>
+        <v>627.5770176220481</v>
       </c>
       <c r="C13" t="n">
-        <v>825.3518203322456</v>
+        <v>458.6408346941412</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2351809199099</v>
+        <v>458.6408346941412</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3220873375168</v>
+        <v>310.7277411117481</v>
       </c>
       <c r="F13" t="n">
-        <v>380.4321398396065</v>
+        <v>163.8377936138377</v>
       </c>
       <c r="G13" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138377</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138377</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279957</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>632.181730276492</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.338775876041</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U13" t="n">
-        <v>1548.361223971665</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V13" t="n">
-        <v>1548.361223971665</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W13" t="n">
-        <v>1258.944053934704</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X13" t="n">
-        <v>1215.080582403682</v>
+        <v>1030.018061595818</v>
       </c>
       <c r="Y13" t="n">
-        <v>994.2880032601524</v>
+        <v>809.2254824522878</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1609.419709186347</v>
+        <v>2061.433233463411</v>
       </c>
       <c r="C14" t="n">
-        <v>1609.419709186347</v>
+        <v>1692.470716522999</v>
       </c>
       <c r="D14" t="n">
-        <v>1609.419709186347</v>
+        <v>1334.205017916249</v>
       </c>
       <c r="E14" t="n">
-        <v>1223.631456588103</v>
+        <v>948.4167653180043</v>
       </c>
       <c r="F14" t="n">
-        <v>812.6455517984948</v>
+        <v>537.4308605283967</v>
       </c>
       <c r="G14" t="n">
         <v>397.9052307464399</v>
@@ -5273,25 +5273,25 @@
         <v>103.7230475307834</v>
       </c>
       <c r="I14" t="n">
-        <v>74.53055601169297</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J14" t="n">
-        <v>291.0377674773519</v>
+        <v>291.0377674773517</v>
       </c>
       <c r="K14" t="n">
-        <v>666.2644720055987</v>
+        <v>666.2644720055991</v>
       </c>
       <c r="L14" t="n">
-        <v>1168.668140645699</v>
+        <v>1168.6681406457</v>
       </c>
       <c r="M14" t="n">
         <v>1759.358462275286</v>
       </c>
       <c r="N14" t="n">
-        <v>2364.22057923539</v>
+        <v>2364.220579235391</v>
       </c>
       <c r="O14" t="n">
-        <v>2922.039463163073</v>
+        <v>2922.039463163074</v>
       </c>
       <c r="P14" t="n">
         <v>3363.623974140402</v>
@@ -5303,25 +5303,25 @@
         <v>3726.527800584648</v>
       </c>
       <c r="S14" t="n">
-        <v>3623.805524045193</v>
+        <v>3726.527800584648</v>
       </c>
       <c r="T14" t="n">
-        <v>3419.281671577574</v>
+        <v>3522.003948117029</v>
       </c>
       <c r="U14" t="n">
-        <v>3419.281671577574</v>
+        <v>3522.003948117029</v>
       </c>
       <c r="V14" t="n">
-        <v>3088.218784234004</v>
+        <v>3190.941060773458</v>
       </c>
       <c r="W14" t="n">
-        <v>2759.62463948736</v>
+        <v>2838.172405503344</v>
       </c>
       <c r="X14" t="n">
-        <v>2386.15888122628</v>
+        <v>2838.172405503344</v>
       </c>
       <c r="Y14" t="n">
-        <v>1996.019549250469</v>
+        <v>2448.033073527533</v>
       </c>
     </row>
     <row r="15">
@@ -5352,19 +5352,19 @@
         <v>87.41950470718612</v>
       </c>
       <c r="I15" t="n">
-        <v>74.53055601169297</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J15" t="n">
-        <v>74.53055601169297</v>
+        <v>184.6629209807616</v>
       </c>
       <c r="K15" t="n">
-        <v>170.1112445399392</v>
+        <v>184.6629209807616</v>
       </c>
       <c r="L15" t="n">
-        <v>574.6261033188193</v>
+        <v>574.6261033188204</v>
       </c>
       <c r="M15" t="n">
-        <v>1066.032731952775</v>
+        <v>1066.032731952776</v>
       </c>
       <c r="N15" t="n">
         <v>1584.85407673636</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1093.678270271805</v>
+        <v>709.0503268779795</v>
       </c>
       <c r="C16" t="n">
-        <v>924.7420873438983</v>
+        <v>540.1141439500726</v>
       </c>
       <c r="D16" t="n">
-        <v>774.6254479315625</v>
+        <v>389.9975045377369</v>
       </c>
       <c r="E16" t="n">
-        <v>626.7123543491693</v>
+        <v>242.0844109553438</v>
       </c>
       <c r="F16" t="n">
-        <v>479.822406851259</v>
+        <v>242.0844109553438</v>
       </c>
       <c r="G16" t="n">
-        <v>312.2685519076081</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="H16" t="n">
-        <v>167.3759477130506</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="I16" t="n">
-        <v>74.53055601169297</v>
+        <v>74.53055601169295</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9765865525471</v>
+        <v>129.9765865525474</v>
       </c>
       <c r="K16" t="n">
-        <v>350.9282837923168</v>
+        <v>350.9282837923173</v>
       </c>
       <c r="L16" t="n">
-        <v>689.1968198553102</v>
+        <v>689.1968198553105</v>
       </c>
       <c r="M16" t="n">
         <v>1056.242685479732</v>
@@ -5449,7 +5449,7 @@
         <v>1419.995637229307</v>
       </c>
       <c r="O16" t="n">
-        <v>1739.964067776857</v>
+        <v>1739.964067776858</v>
       </c>
       <c r="P16" t="n">
         <v>1990.231654135873</v>
@@ -5458,28 +5458,28 @@
         <v>2080.068878389594</v>
       </c>
       <c r="R16" t="n">
-        <v>2080.068878389594</v>
+        <v>1996.937179304785</v>
       </c>
       <c r="S16" t="n">
-        <v>2080.068878389594</v>
+        <v>1923.06417249861</v>
       </c>
       <c r="T16" t="n">
-        <v>1858.938821053358</v>
+        <v>1701.934115162375</v>
       </c>
       <c r="U16" t="n">
-        <v>1758.000774205949</v>
+        <v>1701.934115162375</v>
       </c>
       <c r="V16" t="n">
-        <v>1503.316286000063</v>
+        <v>1447.249626956488</v>
       </c>
       <c r="W16" t="n">
-        <v>1503.316286000063</v>
+        <v>1157.832456919527</v>
       </c>
       <c r="X16" t="n">
-        <v>1275.326735102045</v>
+        <v>929.8429060215096</v>
       </c>
       <c r="Y16" t="n">
-        <v>1275.326735102045</v>
+        <v>709.0503268779795</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C17" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D17" t="n">
         <v>1458.093420216582</v>
       </c>
       <c r="E17" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F17" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G17" t="n">
         <v>342.8002736162838</v>
@@ -5516,22 +5516,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K17" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050964</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M17" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O17" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q17" t="n">
         <v>4142.907144767228</v>
@@ -5549,16 +5549,16 @@
         <v>3795.851627400162</v>
       </c>
       <c r="V17" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W17" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X17" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y17" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="18">
@@ -5592,28 +5592,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J18" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K18" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L18" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M18" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N18" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O18" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q18" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502097</v>
+        <v>872.8624197502099</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477717</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609046</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039802</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G19" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897928</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I19" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K19" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040893</v>
@@ -5692,19 +5692,19 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R19" t="n">
         <v>2487.049233352542</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T19" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U19" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
         <v>1664.992195357083</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E20" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162838</v>
@@ -5753,7 +5753,7 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K20" t="n">
-        <v>766.6831886951452</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
@@ -5762,7 +5762,7 @@
         <v>2001.213713746739</v>
       </c>
       <c r="N20" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O20" t="n">
         <v>3311.067850233288</v>
@@ -5771,31 +5771,31 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R20" t="n">
         <v>4249.020448755811</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924549</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W20" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J21" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M21" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N21" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O21" t="n">
-        <v>1934.929714729833</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.031270281989</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q21" t="n">
         <v>2530.879212293269</v>
@@ -5899,7 +5899,7 @@
         <v>386.7245456315384</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H22" t="n">
         <v>140.0574709897931</v>
@@ -5908,25 +5908,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J22" t="n">
-        <v>185.1742787042783</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040894</v>
       </c>
       <c r="N22" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q22" t="n">
         <v>2529.521427597205</v>
@@ -5941,7 +5941,7 @@
         <v>2144.901839127669</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V22" t="n">
         <v>1664.992195357083</v>
@@ -5978,7 +5978,7 @@
         <v>725.1782574796672</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
         <v>84.98040897511622</v>
@@ -5987,25 +5987,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J23" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951441</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L23" t="n">
         <v>1336.032957050962</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233287</v>
       </c>
       <c r="P23" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q23" t="n">
         <v>4142.907144767228</v>
@@ -6029,10 +6029,10 @@
         <v>3175.879079437414</v>
       </c>
       <c r="X23" t="n">
-        <v>2834.342818501804</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y23" t="n">
-        <v>2476.132983851461</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I24" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="L24" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277778</v>
       </c>
       <c r="M24" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N24" t="n">
-        <v>1428.524759781583</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="O24" t="n">
-        <v>1934.929714729833</v>
+        <v>2100.171002464469</v>
       </c>
       <c r="P24" t="n">
-        <v>2322.031270281989</v>
+        <v>2487.272558016625</v>
       </c>
       <c r="Q24" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502095</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477713</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D25" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039799</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315383</v>
+        <v>386.7245456315385</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749442</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H25" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I25" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J25" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443593</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902769</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040892</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028687</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073042</v>
+        <v>1211.444469073043</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6200,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
         <v>1104.234664943806</v>
@@ -6215,7 +6215,7 @@
         <v>725.1782574796671</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
         <v>84.98040897511622</v>
@@ -6227,22 +6227,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K26" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
         <v>4142.907144767228</v>
@@ -6254,22 +6254,22 @@
         <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W26" t="n">
         <v>3175.879079437414</v>
       </c>
       <c r="X26" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y26" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="27">
@@ -6303,28 +6303,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511622</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448914</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M27" t="n">
-        <v>850.6694118551806</v>
+        <v>1522.315654538067</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,64 +6358,64 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H28" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I28" t="n">
         <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.174278704279</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443618</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902794</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S28" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127669</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.747186237502</v>
       </c>
       <c r="V28" t="n">
         <v>1664.992195357083</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112808</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497865</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943808</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796686</v>
       </c>
       <c r="G29" t="n">
-        <v>342.8002736162836</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511774</v>
       </c>
       <c r="J29" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076851</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951463</v>
       </c>
       <c r="L29" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M29" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N29" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O29" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400159</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437413</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448914</v>
+        <v>670.3561405779133</v>
       </c>
       <c r="M30" t="n">
-        <v>850.6694118551806</v>
+        <v>1219.274605188202</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781583</v>
+        <v>1797.129953114605</v>
       </c>
       <c r="O30" t="n">
-        <v>1934.929714729833</v>
+        <v>2303.534908062855</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281989</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q30" t="n">
         <v>2530.879212293269</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>872.862419750209</v>
+        <v>872.8624197502103</v>
       </c>
       <c r="C31" t="n">
-        <v>735.8557341477709</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D31" t="n">
-        <v>617.668592060904</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E31" t="n">
-        <v>501.6849958039796</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F31" t="n">
-        <v>386.724545631538</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G31" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897929</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042787</v>
       </c>
       <c r="K31" t="n">
         <v>459.5287020443615</v>
       </c>
       <c r="L31" t="n">
-        <v>857.382767690279</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.71920135497</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313932</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P31" t="n">
-        <v>2392.455631028685</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q31" t="n">
-        <v>2529.521427597202</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R31" t="n">
-        <v>2487.04923335254</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S31" t="n">
-        <v>2333.272818966193</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.901839127666</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U31" t="n">
-        <v>1887.7471862375</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X31" t="n">
-        <v>1211.444469073041</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y31" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F32" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G32" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
         <v>84.98040897511622</v>
@@ -6777,28 +6777,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511622</v>
+        <v>165.6257438946549</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511622</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448914</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O33" t="n">
-        <v>1934.929714729833</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="P33" t="n">
-        <v>2322.031270281989</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="Q33" t="n">
-        <v>2530.879212293269</v>
+        <v>2555.644190323788</v>
       </c>
       <c r="R33" t="n">
         <v>2555.644190323788</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502106</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477723</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609042</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039805</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749445</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897932</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I34" t="n">
         <v>84.98040897511622</v>
@@ -6859,49 +6859,49 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K34" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N34" t="n">
-        <v>1709.719201354975</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q34" t="n">
-        <v>2529.521427597206</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R34" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.272818966197</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T34" t="n">
         <v>2144.901839127669</v>
       </c>
       <c r="U34" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y34" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D35" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E35" t="n">
-        <v>1104.234664943807</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F35" t="n">
-        <v>725.1782574796678</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H35" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="I35" t="n">
-        <v>84.98040897511683</v>
+        <v>84.98040897511592</v>
       </c>
       <c r="J35" t="n">
-        <v>337.4933016076842</v>
+        <v>337.4933016076833</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951454</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N35" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P35" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q35" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R35" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.02044875581</v>
       </c>
       <c r="S35" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924546</v>
       </c>
       <c r="T35" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283564</v>
       </c>
       <c r="U35" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400161</v>
       </c>
       <c r="V35" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382059</v>
       </c>
       <c r="W35" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X35" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y35" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851459</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H36" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I36" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J36" t="n">
         <v>216.5575109835859</v>
@@ -7023,10 +7023,10 @@
         <v>973.3971899277776</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N36" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O36" t="n">
         <v>2555.644190323788</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502098</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477713</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I37" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511621</v>
       </c>
       <c r="J37" t="n">
-        <v>185.1742787042782</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K37" t="n">
-        <v>459.5287020443609</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902783</v>
+        <v>857.3827676902789</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040892</v>
       </c>
       <c r="N37" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313934</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028687</v>
       </c>
       <c r="Q37" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U37" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X37" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112806</v>
       </c>
       <c r="C38" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497863</v>
       </c>
       <c r="D38" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E38" t="n">
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796671</v>
       </c>
       <c r="G38" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162837</v>
       </c>
       <c r="H38" t="n">
-        <v>84.98040897511584</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I38" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J38" t="n">
-        <v>337.4933016076839</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L38" t="n">
         <v>1336.032957050963</v>
@@ -7184,40 +7184,40 @@
         <v>2001.213713746738</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889753</v>
       </c>
       <c r="O38" t="n">
         <v>3311.067850233286</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612702</v>
       </c>
       <c r="Q38" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R38" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S38" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T38" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U38" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V38" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W38" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437413</v>
       </c>
       <c r="X38" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501802</v>
       </c>
       <c r="Y38" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H39" t="n">
-        <v>89.89576342177179</v>
+        <v>89.89576342177176</v>
       </c>
       <c r="I39" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J39" t="n">
         <v>216.5575109835859</v>
@@ -7263,7 +7263,7 @@
         <v>1522.315654538067</v>
       </c>
       <c r="N39" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O39" t="n">
         <v>2555.644190323788</v>
@@ -7306,64 +7306,64 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502089</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477707</v>
+        <v>735.855734147771</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609036</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039793</v>
+        <v>501.6849958039797</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315377</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G40" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H40" t="n">
-        <v>140.0574709897932</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I40" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443614</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902786</v>
+        <v>857.382767690279</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.55207904089</v>
       </c>
       <c r="N40" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.71920135497</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313933</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028686</v>
       </c>
       <c r="Q40" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597203</v>
       </c>
       <c r="R40" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352541</v>
       </c>
       <c r="S40" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966194</v>
       </c>
       <c r="T40" t="n">
-        <v>2144.901839127668</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U40" t="n">
-        <v>1887.747186237501</v>
+        <v>1887.7471862375</v>
       </c>
       <c r="V40" t="n">
         <v>1664.992195357082</v>
@@ -7391,19 +7391,19 @@
         <v>1784.429621497863</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216581</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943805</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796675</v>
+        <v>725.1782574796664</v>
       </c>
       <c r="G41" t="n">
-        <v>342.8002736162839</v>
+        <v>342.8002736162828</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511515</v>
       </c>
       <c r="I41" t="n">
         <v>84.98040897511621</v>
@@ -7412,7 +7412,7 @@
         <v>337.4933016076836</v>
       </c>
       <c r="K41" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L41" t="n">
         <v>1336.032957050963</v>
@@ -7494,13 +7494,13 @@
         <v>519.5985603334502</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N42" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O42" t="n">
         <v>2555.644190323788</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502089</v>
+        <v>872.8624197502098</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477706</v>
+        <v>735.8557341477716</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609035</v>
+        <v>617.6685920609045</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039803</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G43" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749442</v>
       </c>
       <c r="H43" t="n">
         <v>140.0574709897931</v>
@@ -7567,52 +7567,52 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042781</v>
+        <v>185.1742787042785</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443608</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902782</v>
+        <v>857.3827676902783</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354972</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O43" t="n">
-        <v>2087.878830313934</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P43" t="n">
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597204</v>
+        <v>2529.521427597205</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352542</v>
+        <v>2487.049233352543</v>
       </c>
       <c r="S43" t="n">
-        <v>2333.272818966195</v>
+        <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127667</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237501</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357082</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.50452264559</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073042</v>
       </c>
       <c r="Y43" t="n">
-        <v>1022.58138725498</v>
+        <v>1022.581387254981</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>84.98040897511621</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511592</v>
       </c>
       <c r="J44" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076833</v>
       </c>
       <c r="K44" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L44" t="n">
         <v>1336.032957050963</v>
@@ -7725,19 +7725,19 @@
         <v>84.98040897511621</v>
       </c>
       <c r="J45" t="n">
-        <v>216.5575109835859</v>
+        <v>165.6257438946549</v>
       </c>
       <c r="K45" t="n">
-        <v>519.5985603334502</v>
+        <v>468.6667932445192</v>
       </c>
       <c r="L45" t="n">
-        <v>973.3971899277776</v>
+        <v>922.4654228388466</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.315654538067</v>
+        <v>1471.383887449136</v>
       </c>
       <c r="N45" t="n">
-        <v>2100.171002464469</v>
+        <v>2049.239235375538</v>
       </c>
       <c r="O45" t="n">
         <v>2555.644190323788</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477714</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609043</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039799</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315381</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.294345074944</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
@@ -7807,10 +7807,10 @@
         <v>185.1742787042784</v>
       </c>
       <c r="K46" t="n">
-        <v>459.528702044361</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L46" t="n">
-        <v>857.3827676902785</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M46" t="n">
         <v>1285.552079040893</v>
@@ -7819,10 +7819,10 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O46" t="n">
-        <v>2087.878830313935</v>
+        <v>2087.878830313936</v>
       </c>
       <c r="P46" t="n">
-        <v>2392.455631028688</v>
+        <v>2392.455631028689</v>
       </c>
       <c r="Q46" t="n">
         <v>2529.521427597205</v>
@@ -7834,7 +7834,7 @@
         <v>2333.272818966196</v>
       </c>
       <c r="T46" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U46" t="n">
         <v>1887.747186237501</v>
@@ -9796,7 +9796,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446505</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
         <v>162.4747015415544</v>
@@ -10279,7 +10279,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N31" t="n">
-        <v>171.8177168444574</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O31" t="n">
         <v>163.0416663658825</v>
@@ -10516,7 +10516,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N34" t="n">
-        <v>171.8177168444638</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O34" t="n">
         <v>163.0416663658825</v>
@@ -10750,7 +10750,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M37" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094435</v>
       </c>
       <c r="N37" t="n">
         <v>171.8177168444618</v>
@@ -10987,7 +10987,7 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M40" t="n">
-        <v>178.5096609094456</v>
+        <v>178.5096609094422</v>
       </c>
       <c r="N40" t="n">
         <v>171.8177168444618</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292586</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881757</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>289.9110058020827</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>100.2733339085694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983803</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314418</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761691</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>182.2848185733252</v>
+        <v>99.90979563493507</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>272.4625443573965</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.6950537740603</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9688673339485</v>
+        <v>250.9688673339484</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>23.93276541823622</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>143.4436781526118</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>91.91693778434404</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>82.30038209396103</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>187.1986443782762</v>
+        <v>114.0643676401634</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>186.2751268158704</v>
+        <v>286.2037931948048</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-3.513749910243533e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-2.151612349409311e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24212,7 +24212,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.181774678116199e-12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.300293206440983e-12</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1055289.750986617</v>
+        <v>1055289.750986616</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1267337.29816834</v>
+        <v>1267337.298168341</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1267337.29816834</v>
+        <v>1267337.298168341</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1267337.298168341</v>
+        <v>1267337.29816834</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194638</v>
@@ -26323,37 +26323,37 @@
         <v>153448.6945369143</v>
       </c>
       <c r="F2" t="n">
-        <v>161727.7374629522</v>
+        <v>161727.7374629523</v>
       </c>
       <c r="G2" t="n">
         <v>184734.3982194639</v>
       </c>
       <c r="H2" t="n">
+        <v>184734.398219464</v>
+      </c>
+      <c r="I2" t="n">
         <v>184734.3982194639</v>
-      </c>
-      <c r="I2" t="n">
-        <v>184734.398219464</v>
       </c>
       <c r="J2" t="n">
         <v>184734.3982194639</v>
       </c>
       <c r="K2" t="n">
+        <v>184734.3982194637</v>
+      </c>
+      <c r="L2" t="n">
+        <v>184734.3982194638</v>
+      </c>
+      <c r="M2" t="n">
         <v>184734.3982194639</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>184734.398219464</v>
-      </c>
-      <c r="M2" t="n">
-        <v>184734.3982194637</v>
-      </c>
-      <c r="N2" t="n">
-        <v>184734.3982194639</v>
       </c>
       <c r="O2" t="n">
         <v>184734.3982194638</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194638</v>
+        <v>184734.3982194637</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>345405.5970321811</v>
+        <v>345405.5970321832</v>
       </c>
       <c r="C3" t="n">
-        <v>50948.63134876637</v>
+        <v>50948.63134876438</v>
       </c>
       <c r="D3" t="n">
-        <v>87233.51607513236</v>
+        <v>87233.51607513204</v>
       </c>
       <c r="E3" t="n">
         <v>707780.857642954</v>
       </c>
       <c r="F3" t="n">
-        <v>93369.88484654263</v>
+        <v>93369.8848465427</v>
       </c>
       <c r="G3" t="n">
-        <v>143964.0818975338</v>
+        <v>143964.0818975339</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>1.427335973858135e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>4764.558968757395</v>
+        <v>4764.558968757539</v>
       </c>
       <c r="K3" t="n">
-        <v>8128.948714908604</v>
+        <v>8128.948714908472</v>
       </c>
       <c r="L3" t="n">
-        <v>41060.19902194622</v>
+        <v>41060.19902194611</v>
       </c>
       <c r="M3" t="n">
         <v>179249.6449383016</v>
       </c>
       <c r="N3" t="n">
-        <v>24549.15438613164</v>
+        <v>24549.15438613155</v>
       </c>
       <c r="O3" t="n">
-        <v>31434.5945687596</v>
+        <v>31434.59456875966</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348982.9265318208</v>
+        <v>348982.9265318201</v>
       </c>
       <c r="C4" t="n">
         <v>333256.5422474307</v>
       </c>
       <c r="D4" t="n">
-        <v>305279.4906303398</v>
+        <v>305279.4906303399</v>
       </c>
       <c r="E4" t="n">
-        <v>15869.8427522146</v>
+        <v>15869.84275221455</v>
       </c>
       <c r="F4" t="n">
-        <v>15921.7103307128</v>
+        <v>15921.71033071284</v>
       </c>
       <c r="G4" t="n">
-        <v>47059.20276613312</v>
+        <v>47059.2027661331</v>
       </c>
       <c r="H4" t="n">
         <v>47059.20276613312</v>
       </c>
       <c r="I4" t="n">
+        <v>47059.20276613308</v>
+      </c>
+      <c r="J4" t="n">
+        <v>47059.20276613309</v>
+      </c>
+      <c r="K4" t="n">
         <v>47059.20276613315</v>
       </c>
-      <c r="J4" t="n">
-        <v>47059.20276613312</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>47059.20276613314</v>
+      </c>
+      <c r="M4" t="n">
+        <v>47059.20276613315</v>
+      </c>
+      <c r="N4" t="n">
+        <v>47059.20276613317</v>
+      </c>
+      <c r="O4" t="n">
         <v>47059.20276613318</v>
-      </c>
-      <c r="L4" t="n">
-        <v>47059.20276613308</v>
-      </c>
-      <c r="M4" t="n">
-        <v>47059.20276613314</v>
-      </c>
-      <c r="N4" t="n">
-        <v>47059.20276613308</v>
-      </c>
-      <c r="O4" t="n">
-        <v>47059.20276613314</v>
       </c>
       <c r="P4" t="n">
         <v>47059.20276613312</v>
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>42410.8888242567</v>
+        <v>42410.88882425682</v>
       </c>
       <c r="C5" t="n">
         <v>45306.68319048216</v>
       </c>
       <c r="D5" t="n">
-        <v>50823.37311172271</v>
+        <v>50823.37311172269</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>82183.39720390701</v>
+        <v>82183.39720390699</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.43410215527</v>
       </c>
       <c r="H5" t="n">
         <v>95106.43410215528</v>
@@ -26491,16 +26491,16 @@
         <v>95106.43410215528</v>
       </c>
       <c r="J5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="K5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="L5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>95106.43410215527</v>
-      </c>
-      <c r="L5" t="n">
-        <v>95106.43410215527</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.43410215528</v>
       </c>
       <c r="N5" t="n">
         <v>95106.43410215527</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-552065.014168795</v>
+        <v>-552065.0141687964</v>
       </c>
       <c r="C6" t="n">
-        <v>-244777.4585672154</v>
+        <v>-244777.4585672134</v>
       </c>
       <c r="D6" t="n">
-        <v>-258601.9815977312</v>
+        <v>-258601.9815977311</v>
       </c>
       <c r="E6" t="n">
-        <v>-644508.3464196476</v>
+        <v>-644855.9653494536</v>
       </c>
       <c r="F6" t="n">
-        <v>-29747.25491821019</v>
+        <v>-30002.88448217145</v>
       </c>
       <c r="G6" t="n">
-        <v>-101395.3205463583</v>
+        <v>-101395.3205463584</v>
       </c>
       <c r="H6" t="n">
-        <v>42568.76135117548</v>
+        <v>42568.76135117556</v>
       </c>
       <c r="I6" t="n">
-        <v>42568.76135117548</v>
+        <v>42568.76135117536</v>
       </c>
       <c r="J6" t="n">
-        <v>37804.20238241805</v>
+        <v>37804.20238241798</v>
       </c>
       <c r="K6" t="n">
-        <v>34439.81263626687</v>
+        <v>34439.81263626675</v>
       </c>
       <c r="L6" t="n">
-        <v>1508.562329229419</v>
+        <v>1508.562329229229</v>
       </c>
       <c r="M6" t="n">
-        <v>-136680.8835871263</v>
+        <v>-136680.8835871261</v>
       </c>
       <c r="N6" t="n">
-        <v>18019.60696504386</v>
+        <v>18019.60696504397</v>
       </c>
       <c r="O6" t="n">
-        <v>11134.16678241581</v>
+        <v>11134.16678241568</v>
       </c>
       <c r="P6" t="n">
-        <v>42568.76135117537</v>
+        <v>42568.76135117529</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26692,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="I2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="J2" t="n">
+        <v>31.61020235221392</v>
+      </c>
+      <c r="K2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="M2" t="n">
         <v>31.61020235221402</v>
       </c>
-      <c r="J2" t="n">
-        <v>31.61020235221395</v>
-      </c>
-      <c r="K2" t="n">
-        <v>31.61020235221409</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221388</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>31.61020235221406</v>
+      </c>
+      <c r="O2" t="n">
         <v>31.61020235221397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221391</v>
-      </c>
-      <c r="O2" t="n">
-        <v>31.61020235221391</v>
       </c>
       <c r="P2" t="n">
         <v>31.61020235221395</v>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228083</v>
+        <v>352.1154025228101</v>
       </c>
       <c r="C3" t="n">
         <v>396.859943267568</v>
       </c>
       <c r="D3" t="n">
-        <v>476.1157511985022</v>
+        <v>476.1157511985019</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1171.567643808273</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703106</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="C4" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="D4" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>931.631950146162</v>
+        <v>931.6319501461619</v>
       </c>
       <c r="G4" t="n">
         <v>1062.255112188953</v>
@@ -26814,7 +26814,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="K4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
         <v>1062.255112188953</v>
@@ -26823,7 +26823,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="N4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="O4" t="n">
         <v>1062.255112188953</v>
@@ -26914,19 +26914,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.6102023522138</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M2" t="n">
-        <v>8.881784197001252e-14</v>
+        <v>7.460698725481052e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26957,28 +26957,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>352.1154025228083</v>
+        <v>352.1154025228101</v>
       </c>
       <c r="C3" t="n">
-        <v>44.74454074475972</v>
+        <v>44.74454074475796</v>
       </c>
       <c r="D3" t="n">
-        <v>79.25580793093417</v>
+        <v>79.25580793093388</v>
       </c>
       <c r="E3" t="n">
-        <v>613.6609493947963</v>
+        <v>613.6609493947964</v>
       </c>
       <c r="F3" t="n">
         <v>81.79094321497496</v>
       </c>
       <c r="G3" t="n">
-        <v>106.5922268118493</v>
+        <v>106.5922268118495</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18.21008304703106</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="C4" t="n">
-        <v>31.58492398009357</v>
+        <v>31.58492398009237</v>
       </c>
       <c r="D4" t="n">
-        <v>62.31765309779902</v>
+        <v>62.3176530977988</v>
       </c>
       <c r="E4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="F4" t="n">
-        <v>100.2304947438691</v>
+        <v>100.230494743869</v>
       </c>
       <c r="G4" t="n">
-        <v>130.6231620427908</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703106</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009311</v>
+        <v>31.5849239800926</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779948</v>
+        <v>62.31765309779857</v>
       </c>
       <c r="M4" t="n">
         <v>719.2887952773692</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438691</v>
+        <v>100.2304947438688</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427906</v>
+        <v>130.6231620427911</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,19 +27151,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>18.21008304703106</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="K4" t="n">
-        <v>31.58492398009357</v>
+        <v>31.58492398009237</v>
       </c>
       <c r="L4" t="n">
-        <v>62.31765309779902</v>
+        <v>62.3176530977988</v>
       </c>
       <c r="M4" t="n">
-        <v>719.2887952773692</v>
+        <v>719.2887952773694</v>
       </c>
       <c r="N4" t="n">
-        <v>100.2304947438691</v>
+        <v>100.230494743869</v>
       </c>
       <c r="O4" t="n">
-        <v>130.6231620427908</v>
+        <v>130.6231620427909</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,25 +27388,25 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>393.5374272273491</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>395.6771151614785</v>
       </c>
       <c r="H2" t="n">
-        <v>324.9779101918005</v>
+        <v>324.9779101918004</v>
       </c>
       <c r="I2" t="n">
-        <v>155.9033104517704</v>
+        <v>155.9033104517702</v>
       </c>
       <c r="J2" t="n">
-        <v>60.90377530107742</v>
+        <v>60.90377530107681</v>
       </c>
       <c r="K2" t="n">
-        <v>40.02794296996274</v>
+        <v>40.02794296996183</v>
       </c>
       <c r="L2" t="n">
-        <v>12.38369583986432</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27418,19 +27418,19 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>27.67667403855401</v>
+        <v>27.67667403855299</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.23328652918759</v>
+        <v>69.44336957621792</v>
       </c>
       <c r="R2" t="n">
-        <v>126.66666684439</v>
+        <v>126.6666668443895</v>
       </c>
       <c r="S2" t="n">
-        <v>171.8043972325418</v>
+        <v>176.7634676365427</v>
       </c>
       <c r="T2" t="n">
-        <v>216.8993262493833</v>
+        <v>216.8993262493832</v>
       </c>
       <c r="U2" t="n">
         <v>251.2324097633065</v>
@@ -27467,22 +27467,22 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>126.8591293463528</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.5861368634446</v>
       </c>
       <c r="H3" t="n">
-        <v>88.88130387777318</v>
+        <v>104.9207450255981</v>
       </c>
       <c r="I3" t="n">
-        <v>55.23582610576096</v>
+        <v>73.44590915279188</v>
       </c>
       <c r="J3" t="n">
-        <v>55.28179755587598</v>
+        <v>55.28179755587563</v>
       </c>
       <c r="K3" t="n">
-        <v>15.54112977924356</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27500,22 +27500,22 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>43.30284318957044</v>
+        <v>25.0927601425377</v>
       </c>
       <c r="R3" t="n">
-        <v>80.44540546303783</v>
+        <v>80.44540546303641</v>
       </c>
       <c r="S3" t="n">
-        <v>157.6151642200256</v>
+        <v>139.4050811729933</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1119545918173</v>
+        <v>197.1119545918172</v>
       </c>
       <c r="U3" t="n">
         <v>225.8915544296744</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>232.3022757808422</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27555,34 +27555,34 @@
         <v>156.5817812997788</v>
       </c>
       <c r="I4" t="n">
-        <v>136.3554298199558</v>
+        <v>136.3554298199557</v>
       </c>
       <c r="J4" t="n">
-        <v>82.10359380956201</v>
+        <v>82.10359380956179</v>
       </c>
       <c r="K4" t="n">
-        <v>55.24219515018311</v>
+        <v>55.24219515018274</v>
       </c>
       <c r="L4" t="n">
-        <v>40.48311410323817</v>
+        <v>40.48311410323768</v>
       </c>
       <c r="M4" t="n">
-        <v>39.39257270660862</v>
+        <v>39.39257270660812</v>
       </c>
       <c r="N4" t="n">
-        <v>30.51901051988179</v>
+        <v>30.51901051988129</v>
       </c>
       <c r="O4" t="n">
-        <v>48.70751749406205</v>
+        <v>48.70751749406159</v>
       </c>
       <c r="P4" t="n">
-        <v>60.93221199728795</v>
+        <v>60.93221199728757</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.33557584850179</v>
+        <v>98.33557584850152</v>
       </c>
       <c r="R4" t="n">
-        <v>148.7431818545824</v>
+        <v>148.7431818545823</v>
       </c>
       <c r="S4" t="n">
         <v>212.9509385839194</v>
@@ -27625,10 +27625,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>374.1896838787522</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>363.9123136306534</v>
       </c>
       <c r="H5" t="n">
         <v>323.1357392253592</v>
@@ -27640,7 +27640,7 @@
         <v>45.63689302957772</v>
       </c>
       <c r="K5" t="n">
-        <v>17.14684397594775</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -27658,19 +27658,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2236106924079309</v>
+        <v>50.01861771953256</v>
       </c>
       <c r="R5" t="n">
-        <v>115.3674336481769</v>
+        <v>65.57242662105223</v>
       </c>
       <c r="S5" t="n">
         <v>172.6645079492214</v>
       </c>
       <c r="T5" t="n">
-        <v>166.3169052439262</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U5" t="n">
-        <v>221.9681801198304</v>
+        <v>251.2180195592479</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>128.6212221673242</v>
       </c>
       <c r="G6" t="n">
         <v>136.4898938890125</v>
       </c>
       <c r="H6" t="n">
-        <v>87.54325028331239</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I6" t="n">
-        <v>70.13228042782632</v>
+        <v>20.3372734007017</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27752,7 +27752,7 @@
         <v>225.8852226550407</v>
       </c>
       <c r="V6" t="n">
-        <v>183.0055801223006</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27862,19 +27862,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>294.7633856167878</v>
+        <v>325.5740782643993</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.2760442195644</v>
       </c>
       <c r="H8" t="n">
-        <v>207.7600497819524</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
         <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>95.3531516584621</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>165.4040387101212</v>
+        <v>165.4040387101213</v>
       </c>
       <c r="T8" t="n">
-        <v>214.717169359623</v>
+        <v>214.7171693596231</v>
       </c>
       <c r="U8" t="n">
         <v>251.1925302541847</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>279.4924823415849</v>
+        <v>237.1283085924896</v>
       </c>
       <c r="X8" t="n">
-        <v>257.6184405535454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27935,7 +27935,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>35.3324054397151</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,10 +27944,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3194191323308</v>
+        <v>24.20675900740741</v>
       </c>
       <c r="H9" t="n">
-        <v>102.3448132540521</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27977,25 +27977,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>196.0368949650912</v>
+        <v>161.105394097705</v>
       </c>
       <c r="U9" t="n">
         <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
-        <v>125.5413402640968</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>93.66032507855383</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28032,28 +28032,28 @@
         <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>66.29456574971167</v>
+        <v>66.29456574971169</v>
       </c>
       <c r="K10" t="n">
-        <v>29.26310570632462</v>
+        <v>29.26310570632468</v>
       </c>
       <c r="L10" t="n">
-        <v>7.238823902544752</v>
+        <v>7.238823902544823</v>
       </c>
       <c r="M10" t="n">
-        <v>4.341129883412066</v>
+        <v>0.7157523946086468</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>17.10165812996878</v>
+        <v>17.10165812996885</v>
       </c>
       <c r="P10" t="n">
-        <v>33.88793923037925</v>
+        <v>33.88793923037932</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.98614570966842</v>
+        <v>79.61152319847206</v>
       </c>
       <c r="R10" t="n">
         <v>138.6889896488451</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I17" t="n">
         <v>12.38037836605497</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y17" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y19" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="20">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y23" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y25" t="n">
-        <v>31.61020235221402</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I26" t="n">
         <v>12.38037836605497</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221392</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605645</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221409</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221446</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221388</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221402</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221406</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D41" t="n">
-        <v>31.61020235221514</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I41" t="n">
-        <v>12.38037836605497</v>
+        <v>12.38037836605603</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y41" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="C43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="D43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="E43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="F43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="G43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="H43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="I43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="J43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="K43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="L43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="M43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="N43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="O43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="P43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="R43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="S43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="T43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="U43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="V43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="W43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="X43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221397</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.415539306624354</v>
+        <v>1.415539306624361</v>
       </c>
       <c r="H2" t="n">
-        <v>14.49689192396667</v>
+        <v>14.49689192396674</v>
       </c>
       <c r="I2" t="n">
-        <v>54.57257911863546</v>
+        <v>54.57257911863574</v>
       </c>
       <c r="J2" t="n">
-        <v>120.1421292256089</v>
+        <v>120.1421292256095</v>
       </c>
       <c r="K2" t="n">
-        <v>180.0619080750178</v>
+        <v>180.0619080750187</v>
       </c>
       <c r="L2" t="n">
-        <v>223.3827191301229</v>
+        <v>223.3827191301241</v>
       </c>
       <c r="M2" t="n">
-        <v>248.5563162743038</v>
+        <v>248.556316274305</v>
       </c>
       <c r="N2" t="n">
-        <v>247.623146643622</v>
+        <v>247.6231466436232</v>
       </c>
       <c r="O2" t="n">
-        <v>238.5024483490043</v>
+        <v>238.5024483490055</v>
       </c>
       <c r="P2" t="n">
-        <v>203.5563217167155</v>
+        <v>203.5563217167166</v>
       </c>
       <c r="Q2" t="n">
-        <v>152.8623202982308</v>
+        <v>152.8623202982316</v>
       </c>
       <c r="R2" t="n">
-        <v>88.91887096974216</v>
+        <v>88.9188709697426</v>
       </c>
       <c r="S2" t="n">
-        <v>32.2566019497025</v>
+        <v>32.25660194970266</v>
       </c>
       <c r="T2" t="n">
-        <v>6.196523314748113</v>
+        <v>6.196523314748144</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1132431445299483</v>
+        <v>0.1132431445299489</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7573802997660406</v>
+        <v>0.7573802997660444</v>
       </c>
       <c r="H3" t="n">
-        <v>7.314699210898341</v>
+        <v>7.314699210898377</v>
       </c>
       <c r="I3" t="n">
-        <v>26.07647084720798</v>
+        <v>26.07647084720811</v>
       </c>
       <c r="J3" t="n">
-        <v>71.55582911079071</v>
+        <v>71.55582911079107</v>
       </c>
       <c r="K3" t="n">
-        <v>122.3003091951154</v>
+        <v>122.300309195116</v>
       </c>
       <c r="L3" t="n">
-        <v>156.7644628269052</v>
+        <v>156.7644628269064</v>
       </c>
       <c r="M3" t="n">
-        <v>160.3441169690494</v>
+        <v>160.3441169690506</v>
       </c>
       <c r="N3" t="n">
-        <v>149.5517951303644</v>
+        <v>149.5517951303656</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4185551534991</v>
+        <v>149.4185551534995</v>
       </c>
       <c r="P3" t="n">
-        <v>144.6264188211135</v>
+        <v>144.6264188211142</v>
       </c>
       <c r="Q3" t="n">
-        <v>96.67893089645108</v>
+        <v>96.67893089645156</v>
       </c>
       <c r="R3" t="n">
-        <v>47.02401545389506</v>
+        <v>47.0240154538953</v>
       </c>
       <c r="S3" t="n">
-        <v>14.06800688381219</v>
+        <v>14.06800688381226</v>
       </c>
       <c r="T3" t="n">
-        <v>3.052774103004347</v>
+        <v>3.052774103004362</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04982765130039742</v>
+        <v>0.04982765130039767</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6349622012706378</v>
+        <v>0.6349622012706411</v>
       </c>
       <c r="H4" t="n">
-        <v>5.645391207660767</v>
+        <v>5.645391207660794</v>
       </c>
       <c r="I4" t="n">
-        <v>19.09504510730246</v>
+        <v>19.09504510730256</v>
       </c>
       <c r="J4" t="n">
-        <v>44.8918276298341</v>
+        <v>44.89182762983432</v>
       </c>
       <c r="K4" t="n">
-        <v>73.77106302035227</v>
+        <v>73.77106302035264</v>
       </c>
       <c r="L4" t="n">
-        <v>94.40156217800012</v>
+        <v>94.4015621780006</v>
       </c>
       <c r="M4" t="n">
-        <v>99.53321124099644</v>
+        <v>99.53321124099693</v>
       </c>
       <c r="N4" t="n">
-        <v>97.1665339453514</v>
+        <v>97.1665339453519</v>
       </c>
       <c r="O4" t="n">
-        <v>89.74902095778074</v>
+        <v>89.7490209577812</v>
       </c>
       <c r="P4" t="n">
-        <v>76.79579205185966</v>
+        <v>76.79579205186005</v>
       </c>
       <c r="Q4" t="n">
-        <v>53.16942578094405</v>
+        <v>53.16942578094432</v>
       </c>
       <c r="R4" t="n">
-        <v>28.55020952258704</v>
+        <v>28.55020952258718</v>
       </c>
       <c r="S4" t="n">
-        <v>11.06565945305284</v>
+        <v>11.06565945305289</v>
       </c>
       <c r="T4" t="n">
-        <v>2.713020314519997</v>
+        <v>2.713020314520011</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03463430188748938</v>
+        <v>0.03463430188748955</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31373,7 +31373,7 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M6" t="n">
-        <v>163.8914845489273</v>
+        <v>191.9290409491429</v>
       </c>
       <c r="N6" t="n">
         <v>181.1367191104579</v>
@@ -31382,7 +31382,7 @@
         <v>192.3912514715691</v>
       </c>
       <c r="P6" t="n">
-        <v>163.0046057545602</v>
+        <v>134.9670493543445</v>
       </c>
       <c r="Q6" t="n">
         <v>108.96426215905</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.914033170647244</v>
+        <v>1.914033170647242</v>
       </c>
       <c r="H8" t="n">
-        <v>19.60209220889109</v>
+        <v>19.60209220889108</v>
       </c>
       <c r="I8" t="n">
-        <v>73.79076381137793</v>
+        <v>73.79076381137789</v>
       </c>
       <c r="J8" t="n">
-        <v>162.4511728172216</v>
+        <v>162.4511728172215</v>
       </c>
       <c r="K8" t="n">
-        <v>243.4721969307195</v>
+        <v>243.4721969307194</v>
       </c>
       <c r="L8" t="n">
-        <v>302.0487895769152</v>
+        <v>302.048789576915</v>
       </c>
       <c r="M8" t="n">
-        <v>336.087476975413</v>
+        <v>336.0874769754129</v>
       </c>
       <c r="N8" t="n">
-        <v>341.5257237215146</v>
+        <v>341.5257237215143</v>
       </c>
       <c r="O8" t="n">
-        <v>322.493056380891</v>
+        <v>322.4930563808908</v>
       </c>
       <c r="P8" t="n">
-        <v>275.2403624805372</v>
+        <v>275.240362480537</v>
       </c>
       <c r="Q8" t="n">
-        <v>206.6940495567327</v>
+        <v>206.6940495567326</v>
       </c>
       <c r="R8" t="n">
         <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>43.61603087612411</v>
+        <v>43.61603087612408</v>
       </c>
       <c r="T8" t="n">
-        <v>8.378680204508314</v>
+        <v>8.378680204508308</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1531226536517795</v>
+        <v>0.1531226536517794</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,46 +31595,46 @@
         <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.890630982444359</v>
+        <v>9.890630982444353</v>
       </c>
       <c r="I9" t="n">
-        <v>35.25951553687022</v>
+        <v>35.2595155368702</v>
       </c>
       <c r="J9" t="n">
-        <v>96.75480562798998</v>
+        <v>96.75480562798992</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>165.3693736969363</v>
       </c>
       <c r="L9" t="n">
-        <v>222.3595307837911</v>
+        <v>222.3595307837909</v>
       </c>
       <c r="M9" t="n">
-        <v>254.246694046942</v>
+        <v>254.2466940469417</v>
       </c>
       <c r="N9" t="n">
-        <v>243.454372208257</v>
+        <v>243.4543722082567</v>
       </c>
       <c r="O9" t="n">
-        <v>216.9032093374737</v>
+        <v>189.3752746148962</v>
       </c>
       <c r="P9" t="n">
-        <v>195.5578073177395</v>
+        <v>195.5578073177394</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.7252153102001</v>
+        <v>130.7252153102</v>
       </c>
       <c r="R9" t="n">
-        <v>63.58391107515094</v>
+        <v>63.58391107515091</v>
       </c>
       <c r="S9" t="n">
-        <v>19.0221717577892</v>
+        <v>19.02217175778919</v>
       </c>
       <c r="T9" t="n">
-        <v>4.127833729730409</v>
+        <v>4.127833729730407</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06737487045261827</v>
+        <v>0.06737487045261822</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8585693874071351</v>
+        <v>0.8585693874071345</v>
       </c>
       <c r="H10" t="n">
-        <v>7.633462371674351</v>
+        <v>7.633462371674347</v>
       </c>
       <c r="I10" t="n">
-        <v>25.8195230322073</v>
+        <v>25.81952303220729</v>
       </c>
       <c r="J10" t="n">
-        <v>60.70085568968445</v>
+        <v>60.70085568968441</v>
       </c>
       <c r="K10" t="n">
-        <v>99.75015246421076</v>
+        <v>99.7501524642107</v>
       </c>
       <c r="L10" t="n">
         <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>134.584654064193</v>
+        <v>134.5846540641929</v>
       </c>
       <c r="N10" t="n">
-        <v>131.3845318020392</v>
+        <v>131.3845318020391</v>
       </c>
       <c r="O10" t="n">
-        <v>121.354880321874</v>
+        <v>121.3548803218739</v>
       </c>
       <c r="P10" t="n">
-        <v>103.8400648187684</v>
+        <v>103.8400648187683</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.89347843097383</v>
+        <v>71.89347843097379</v>
       </c>
       <c r="R10" t="n">
-        <v>38.60440172832445</v>
+        <v>38.60440172832442</v>
       </c>
       <c r="S10" t="n">
-        <v>14.96252286963161</v>
+        <v>14.9625228696316</v>
       </c>
       <c r="T10" t="n">
-        <v>3.668432837103212</v>
+        <v>3.66843283710321</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04683105749493469</v>
+        <v>0.04683105749493467</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.709819673601096</v>
+        <v>4.709819673601095</v>
       </c>
       <c r="H14" t="n">
-        <v>48.23444073226724</v>
+        <v>48.23444073226722</v>
       </c>
       <c r="I14" t="n">
         <v>181.5753229665064</v>
       </c>
       <c r="J14" t="n">
-        <v>399.7400575223014</v>
+        <v>399.7400575223013</v>
       </c>
       <c r="K14" t="n">
-        <v>599.1067243058359</v>
+        <v>599.1067243058358</v>
       </c>
       <c r="L14" t="n">
-        <v>743.2448681418056</v>
+        <v>743.2448681418055</v>
       </c>
       <c r="M14" t="n">
-        <v>827.003123762209</v>
+        <v>827.0031237622088</v>
       </c>
       <c r="N14" t="n">
-        <v>840.3848989098282</v>
+        <v>840.3848989098281</v>
       </c>
       <c r="O14" t="n">
-        <v>793.5516295304573</v>
+        <v>793.5516295304571</v>
       </c>
       <c r="P14" t="n">
-        <v>677.2779563384302</v>
+        <v>677.2779563384299</v>
       </c>
       <c r="Q14" t="n">
-        <v>508.6075392775907</v>
+        <v>508.6075392775906</v>
       </c>
       <c r="R14" t="n">
         <v>295.8532100718451</v>
@@ -32026,10 +32026,10 @@
         <v>107.3250158121851</v>
       </c>
       <c r="T14" t="n">
-        <v>20.61723562118881</v>
+        <v>20.6172356211888</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3767855738880876</v>
+        <v>0.3767855738880875</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.519975686681947</v>
+        <v>2.519975686681946</v>
       </c>
       <c r="H15" t="n">
-        <v>24.33765992137565</v>
+        <v>24.33765992137564</v>
       </c>
       <c r="I15" t="n">
-        <v>86.76232079146178</v>
+        <v>86.76232079146176</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>238.082439766736</v>
       </c>
       <c r="K15" t="n">
-        <v>234.3875890028905</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>547.1552472332885</v>
+        <v>532.4565841617517</v>
       </c>
       <c r="M15" t="n">
-        <v>638.5043658755089</v>
+        <v>638.5043658755088</v>
       </c>
       <c r="N15" t="n">
-        <v>655.4036765111964</v>
+        <v>655.4036765111962</v>
       </c>
       <c r="O15" t="n">
-        <v>599.5663205062963</v>
+        <v>599.5663205062962</v>
       </c>
       <c r="P15" t="n">
-        <v>481.204830906836</v>
+        <v>481.2048309068359</v>
       </c>
       <c r="Q15" t="n">
         <v>321.6726858999622</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>46.80744312762297</v>
+        <v>46.80744312762296</v>
       </c>
       <c r="T15" t="n">
-        <v>10.1572704213189</v>
+        <v>10.15727042131889</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1657878741238124</v>
+        <v>0.1657878741238123</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32151,40 +32151,40 @@
         <v>18.78349435482774</v>
       </c>
       <c r="I16" t="n">
-        <v>63.53353714291426</v>
+        <v>63.53353714291424</v>
       </c>
       <c r="J16" t="n">
         <v>149.365271572081</v>
       </c>
       <c r="K16" t="n">
-        <v>245.4530243913071</v>
+        <v>245.453024391307</v>
       </c>
       <c r="L16" t="n">
-        <v>314.0953647023034</v>
+        <v>314.0953647023033</v>
       </c>
       <c r="M16" t="n">
-        <v>331.1695226587878</v>
+        <v>331.1695226587877</v>
       </c>
       <c r="N16" t="n">
         <v>323.2950516102406</v>
       </c>
       <c r="O16" t="n">
-        <v>298.6153069824761</v>
+        <v>298.615306982476</v>
       </c>
       <c r="P16" t="n">
-        <v>255.5169825118896</v>
+        <v>255.5169825118895</v>
       </c>
       <c r="Q16" t="n">
-        <v>176.9067142150493</v>
+        <v>176.9067142150492</v>
       </c>
       <c r="R16" t="n">
-        <v>94.99300928320851</v>
+        <v>94.99300928320848</v>
       </c>
       <c r="S16" t="n">
-        <v>36.81795365869606</v>
+        <v>36.81795365869605</v>
       </c>
       <c r="T16" t="n">
-        <v>9.026832665408005</v>
+        <v>9.026832665408003</v>
       </c>
       <c r="U16" t="n">
         <v>0.1152361616860598</v>
@@ -32312,13 +32312,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L18" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M18" t="n">
         <v>696.5971294879669</v>
@@ -32327,16 +32327,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578283</v>
+        <v>602.6701715750701</v>
       </c>
       <c r="P18" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486996</v>
@@ -32549,13 +32549,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M21" t="n">
         <v>696.5971294879669</v>
@@ -32564,13 +32564,13 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578283</v>
+        <v>577.6550422513128</v>
       </c>
       <c r="P21" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>170.6946332877214</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171344</v>
+        <v>5.138331138171345</v>
       </c>
       <c r="H23" t="n">
-        <v>52.62293376879729</v>
+        <v>52.6229337687973</v>
       </c>
       <c r="I23" t="n">
-        <v>198.0955112043509</v>
+        <v>198.095511204351</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383705</v>
+        <v>436.1094324383706</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171637</v>
       </c>
       <c r="L23" t="n">
-        <v>810.867191086975</v>
+        <v>810.8671910869753</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654296</v>
+        <v>902.2459874654298</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117591</v>
+        <v>916.8452708117592</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565677</v>
+        <v>865.7509905565679</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829625</v>
+        <v>738.8984405829626</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972011</v>
+        <v>554.8819566972012</v>
       </c>
       <c r="R23" t="n">
-        <v>322.770693358156</v>
+        <v>322.7706933581561</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537074</v>
+        <v>0.4110664910537075</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031962</v>
+        <v>2.749249533031963</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781099</v>
+        <v>94.65617909781101</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115856</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.9435090247271</v>
       </c>
       <c r="L24" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155585</v>
       </c>
       <c r="M24" t="n">
-        <v>696.5971294879669</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N24" t="n">
-        <v>715.0339827160628</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>524.986079689235</v>
+        <v>524.9860796892351</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691326</v>
+        <v>209.0440289417418</v>
       </c>
       <c r="R24" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486996</v>
+        <v>51.06610426486998</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047344</v>
+        <v>0.1808716798047345</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838146</v>
+        <v>162.9549067838147</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151666</v>
+        <v>267.7849696151667</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246176</v>
+        <v>325.7840929246177</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636385</v>
+        <v>193.0021404636386</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227498</v>
+        <v>40.16774544227499</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925533</v>
+        <v>9.848117035925535</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -33023,31 +33023,31 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M27" t="n">
         <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O27" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>51.06610426486996</v>
@@ -33260,13 +33260,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
         <v>696.5971294879669</v>
@@ -33278,10 +33278,10 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.986079689235</v>
+        <v>363.6151187581826</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>170.6946332877214</v>
@@ -33497,13 +33497,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>208.297560928827</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>357.5145194463138</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33515,13 +33515,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P33" t="n">
-        <v>524.986079689235</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>350.9392912691326</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>170.6946332877214</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>51.06610426486996</v>
@@ -33743,13 +33743,13 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>696.5971294879669</v>
+        <v>645.1509001052084</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33983,10 +33983,10 @@
         <v>696.5971294879669</v>
       </c>
       <c r="N39" t="n">
-        <v>715.0339827160628</v>
+        <v>663.5877533333045</v>
       </c>
       <c r="O39" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34132,7 +34132,7 @@
         <v>436.1094324383705</v>
       </c>
       <c r="K41" t="n">
-        <v>653.6149895171636</v>
+        <v>653.6149895171634</v>
       </c>
       <c r="L41" t="n">
         <v>810.867191086975</v>
@@ -34150,7 +34150,7 @@
         <v>738.8984405829625</v>
       </c>
       <c r="Q41" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R41" t="n">
         <v>322.770693358156</v>
@@ -34214,7 +34214,7 @@
         <v>443.943509024727</v>
       </c>
       <c r="L42" t="n">
-        <v>596.9368339155584</v>
+        <v>545.4906045327998</v>
       </c>
       <c r="M42" t="n">
         <v>696.5971294879669</v>
@@ -34223,7 +34223,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O42" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34381,7 +34381,7 @@
         <v>916.8452708117591</v>
       </c>
       <c r="O44" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P44" t="n">
         <v>738.8984405829625</v>
@@ -34445,7 +34445,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>259.7437903115855</v>
+        <v>208.297560928827</v>
       </c>
       <c r="K45" t="n">
         <v>443.943509024727</v>
@@ -34460,7 +34460,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O45" t="n">
-        <v>602.6701715750701</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34705,13 +34705,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>18.21008304703106</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="N2" t="n">
-        <v>18.21008304703106</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="O2" t="n">
-        <v>8.404236927317584</v>
+        <v>8.404236927318777</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34781,19 +34781,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.21008304703106</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="M3" t="n">
-        <v>18.21008304703106</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="N3" t="n">
-        <v>18.21008304703106</v>
+        <v>18.21008304703226</v>
       </c>
       <c r="O3" t="n">
-        <v>6.822310709054634</v>
+        <v>6.822310709055057</v>
       </c>
       <c r="P3" t="n">
-        <v>10.65201140678326</v>
+        <v>10.65201140678397</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M6" t="n">
-        <v>21.75745062690899</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="N6" t="n">
         <v>49.79500702712463</v>
@@ -35030,7 +35030,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="P6" t="n">
-        <v>29.03019834022993</v>
+        <v>0.9926419400142784</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>23.38234588573897</v>
+        <v>23.38234588573883</v>
       </c>
       <c r="L8" t="n">
-        <v>66.28237460692793</v>
+        <v>66.28237460692776</v>
       </c>
       <c r="M8" t="n">
-        <v>105.7412437481403</v>
+        <v>105.7412437481401</v>
       </c>
       <c r="N8" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="O8" t="n">
-        <v>92.39484495920428</v>
+        <v>92.39484495920411</v>
       </c>
       <c r="P8" t="n">
-        <v>44.00736672526762</v>
+        <v>44.00736672526745</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>27.5279347225773</v>
       </c>
       <c r="L9" t="n">
-        <v>83.8051510039169</v>
+        <v>83.80515100391676</v>
       </c>
       <c r="M9" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="N9" t="n">
-        <v>112.1126601249237</v>
+        <v>112.1126601249234</v>
       </c>
       <c r="O9" t="n">
-        <v>74.30696489302923</v>
+        <v>46.77903017045175</v>
       </c>
       <c r="P9" t="n">
-        <v>61.58339990340929</v>
+        <v>61.58339990340917</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.698987336806027</v>
+        <v>3.698987336805942</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306631</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701983</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>218.6941529956151</v>
+        <v>218.694152995615</v>
       </c>
       <c r="K14" t="n">
-        <v>379.0168732608553</v>
+        <v>379.0168732608552</v>
       </c>
       <c r="L14" t="n">
-        <v>507.4784531718183</v>
+        <v>507.4784531718182</v>
       </c>
       <c r="M14" t="n">
-        <v>596.6568905349363</v>
+        <v>596.6568905349361</v>
       </c>
       <c r="N14" t="n">
-        <v>610.9718353132373</v>
+        <v>610.9718353132371</v>
       </c>
       <c r="O14" t="n">
-        <v>563.4534181087705</v>
+        <v>563.4534181087704</v>
       </c>
       <c r="P14" t="n">
-        <v>446.0449605831606</v>
+        <v>446.0449605831604</v>
       </c>
       <c r="Q14" t="n">
-        <v>286.3018494031412</v>
+        <v>286.3018494031411</v>
       </c>
       <c r="R14" t="n">
-        <v>80.267672257713</v>
+        <v>80.26767225771295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>111.2448131000693</v>
       </c>
       <c r="K15" t="n">
-        <v>96.5461500285315</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>408.6008674534143</v>
+        <v>393.9022043818775</v>
       </c>
       <c r="M15" t="n">
-        <v>496.3703319534906</v>
+        <v>496.3703319534905</v>
       </c>
       <c r="N15" t="n">
-        <v>524.0619644278631</v>
+        <v>524.0619644278629</v>
       </c>
       <c r="O15" t="n">
-        <v>456.9700760618518</v>
+        <v>456.9700760618517</v>
       </c>
       <c r="P15" t="n">
         <v>347.2304234925057</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>56.00609145540818</v>
+        <v>56.00609145540821</v>
       </c>
       <c r="K16" t="n">
         <v>223.1835325654241</v>
       </c>
       <c r="L16" t="n">
-        <v>341.6853899626195</v>
+        <v>341.6853899626194</v>
       </c>
       <c r="M16" t="n">
         <v>370.7533996206283</v>
@@ -35823,7 +35823,7 @@
         <v>252.795541776783</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.74467096335489</v>
+        <v>90.74467096335486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L18" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M18" t="n">
         <v>554.4630955659486</v>
@@ -35975,16 +35975,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O18" t="n">
-        <v>511.5201565133839</v>
+        <v>460.0739271306256</v>
       </c>
       <c r="P18" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K19" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L19" t="n">
         <v>401.8727935817349</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M21" t="n">
         <v>554.4630955659486</v>
@@ -36212,13 +36212,13 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.5201565133839</v>
+        <v>435.0587978068684</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>25.01512932375741</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.0635279116842</v>
+        <v>255.0635279116843</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721832</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169878</v>
+        <v>575.1007761169881</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381569</v>
+        <v>671.8997542381571</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151681</v>
+        <v>687.4322072151683</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348809</v>
+        <v>635.6527791348811</v>
       </c>
       <c r="P23" t="n">
-        <v>507.665444827693</v>
+        <v>507.6654448276931</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227516</v>
+        <v>332.5762668227517</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>132.9061636449189</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.1020700503681</v>
       </c>
       <c r="L24" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356843</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327296</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O24" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749048</v>
+        <v>391.0116722749049</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831111</v>
+        <v>69.06225485572025</v>
       </c>
       <c r="R24" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414957</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L25" t="n">
         <v>401.8727935817349</v>
@@ -36528,13 +36528,13 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O25" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q25" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L27" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O27" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M28" t="n">
         <v>432.4942538895098</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>218.9601396664397</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
@@ -36926,10 +36926,10 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749048</v>
+        <v>229.6407113438524</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>25.01512932375741</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>101.2059290193559</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K31" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L31" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M31" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010865</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q31" t="n">
-        <v>138.4502995641582</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>81.45993426216026</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>218.9601396664396</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37163,13 +37163,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P33" t="n">
-        <v>391.0116722749048</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.9575171831111</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.01512932375741</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>101.2059290193557</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414976</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M34" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N34" t="n">
-        <v>428.4516387010927</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O34" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P34" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q34" t="n">
-        <v>138.450299564158</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>554.4630955659486</v>
+        <v>503.01686618319</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K37" t="n">
         <v>277.1256801414978</v>
@@ -37470,19 +37470,19 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895078</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010907</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O37" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P37" t="n">
         <v>307.6533340553059</v>
       </c>
       <c r="Q37" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37631,10 +37631,10 @@
         <v>554.4630955659486</v>
       </c>
       <c r="N39" t="n">
-        <v>583.6922706327296</v>
+        <v>532.2460412499712</v>
       </c>
       <c r="O39" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>101.2059290193558</v>
+        <v>101.2059290193559</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L40" t="n">
-        <v>401.8727935817348</v>
+        <v>401.872793581735</v>
       </c>
       <c r="M40" t="n">
-        <v>432.4942538895098</v>
+        <v>432.4942538895065</v>
       </c>
       <c r="N40" t="n">
-        <v>428.4516387010906</v>
+        <v>428.4516387010908</v>
       </c>
       <c r="O40" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P40" t="n">
-        <v>307.6533340553058</v>
+        <v>307.653334055306</v>
       </c>
       <c r="Q40" t="n">
-        <v>138.4502995641581</v>
+        <v>138.4502995641582</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,13 +37774,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.062225503964594e-12</v>
       </c>
       <c r="J41" t="n">
         <v>255.0635279116842</v>
       </c>
       <c r="K41" t="n">
-        <v>433.5251384721831</v>
+        <v>433.5251384721828</v>
       </c>
       <c r="L41" t="n">
         <v>575.1007761169878</v>
@@ -37798,7 +37798,7 @@
         <v>507.665444827693</v>
       </c>
       <c r="Q41" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R41" t="n">
         <v>107.1851555440239</v>
@@ -37862,7 +37862,7 @@
         <v>306.102070050368</v>
       </c>
       <c r="L42" t="n">
-        <v>458.3824541356842</v>
+        <v>406.9362247529257</v>
       </c>
       <c r="M42" t="n">
         <v>554.4630955659486</v>
@@ -37871,7 +37871,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O42" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K43" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L43" t="n">
-        <v>401.8727935817348</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M43" t="n">
         <v>432.4942538895098</v>
@@ -37953,7 +37953,7 @@
         <v>381.9794231908712</v>
       </c>
       <c r="P43" t="n">
-        <v>307.6533340553058</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q43" t="n">
         <v>138.4502995641581</v>
@@ -38029,7 +38029,7 @@
         <v>687.4322072151681</v>
       </c>
       <c r="O44" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P44" t="n">
         <v>507.665444827693</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>132.9061636449188</v>
+        <v>81.45993426216027</v>
       </c>
       <c r="K45" t="n">
         <v>306.102070050368</v>
@@ -38108,7 +38108,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O45" t="n">
-        <v>460.0739271306256</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
